--- a/npm_modules/Professionals.xlsx
+++ b/npm_modules/Professionals.xlsx
@@ -19,16 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="124">
-  <si>
-    <t>https://www.theglampad.com/wp-content/uploads/2022/03/sara-hillery-interior-design.jpeg</t>
-  </si>
-  <si>
-    <t>abc24@gmail.com</t>
-  </si>
-  <si>
-    <t>https://scontent-bom1-2.xx.fbcdn.net/v/t39.30808-6/369904427_223879710611822_7220841334802818135_n.jpg?_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=5f2048&amp;_nc_ohc=vB7LHhVJKEwAb7Llwnv&amp;_nc_ht=scontent-bom1-2.xx&amp;oh=00_AfAQReGV9lrGi9VND65GOv8vawoGhgQcn07nygGgz87xvg&amp;oe=661ADB60</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="116">
   <si>
     <t>https://insertface.com/fb/2333/office-professional-woman-2333016-ou8of-fb.jpg</t>
   </si>
@@ -69,18 +60,6 @@
     <t>https://insertface.com/fb/2341/man-business-professional-2341253-22cbn-fb.jpg</t>
   </si>
   <si>
-    <t>https://insertface.com/fb/2332/professional-movie-costume-2332334-87b4h-fb.jpg</t>
-  </si>
-  <si>
-    <t>https://insertface.com/fb/2331/professional-hollywood-2331268-gbzqw-fb.jpg</t>
-  </si>
-  <si>
-    <t>https://insertface.com/fb/2301/professional-clothing-2301178-6xduc-fb.jpg</t>
-  </si>
-  <si>
-    <t>https://insertface.com/fb/2234/casual-professional-attire-2234011-opvbu-fb.jpg</t>
-  </si>
-  <si>
     <t>https://insertface.com/fb/2302/professional-suit-woman-2301518-jvm4j-fb.jpg</t>
   </si>
   <si>
@@ -99,12 +78,6 @@
     <t>https://insertface.com/fb/2291/work-clothes-professional-2291481-fdfb0-fb.jpg</t>
   </si>
   <si>
-    <t>https://insertface.com/fb/2301/professional-attire-woman-2301283-coprq-fb.jpg</t>
-  </si>
-  <si>
-    <t>https://insertface.com/fb/2332/professional-outfit-man-2331835-fhy8m-fb.jpg</t>
-  </si>
-  <si>
     <t>pincode</t>
   </si>
   <si>
@@ -198,12 +171,6 @@
     <t>Indore</t>
   </si>
   <si>
-    <t>Simrol</t>
-  </si>
-  <si>
-    <t>ligsquare@gmail.com</t>
-  </si>
-  <si>
     <t>satyasai@gmail.com</t>
   </si>
   <si>
@@ -234,9 +201,6 @@
     <t>dewas@gmail.com</t>
   </si>
   <si>
-    <t>patnipura@gmail.com</t>
-  </si>
-  <si>
     <t>gitabhawan@gmail.com</t>
   </si>
   <si>
@@ -279,24 +243,6 @@
     <t>nagar@gmail.com</t>
   </si>
   <si>
-    <t>starsquare@gmail.com</t>
-  </si>
-  <si>
-    <t>janjirwala square</t>
-  </si>
-  <si>
-    <t>janji@gmail.com</t>
-  </si>
-  <si>
-    <t>sarvate Bus stand</t>
-  </si>
-  <si>
-    <t>sarvate@gmail.com</t>
-  </si>
-  <si>
-    <t>Sai Desai</t>
-  </si>
-  <si>
     <t>Nitya Sharma</t>
   </si>
   <si>
@@ -351,12 +297,6 @@
     <t>Manisha Singh</t>
   </si>
   <si>
-    <t>Pranjali</t>
-  </si>
-  <si>
-    <t>Nandani</t>
-  </si>
-  <si>
     <t>shilpa chouhan</t>
   </si>
   <si>
@@ -366,15 +306,9 @@
     <t>Aarya Mishra</t>
   </si>
   <si>
-    <t>Nandu Varma</t>
-  </si>
-  <si>
     <t>Ankita Kushwah</t>
   </si>
   <si>
-    <t>Priya Singh Dangi</t>
-  </si>
-  <si>
     <t>address</t>
   </si>
   <si>
@@ -391,6 +325,48 @@
   </si>
   <si>
     <t>contact_no</t>
+  </si>
+  <si>
+    <t>sneha123@gmail.com</t>
+  </si>
+  <si>
+    <t>Sneha Desai</t>
+  </si>
+  <si>
+    <t>Pranjali Singh</t>
+  </si>
+  <si>
+    <t>Nandani Gajre</t>
+  </si>
+  <si>
+    <t>https://insertface.com/fb/2236/business-professional-attire-2235668-ctia0-fb.jpg</t>
+  </si>
+  <si>
+    <t>https://insertface.com/fb/2351/woman-professional-work-2351144-f3ssd-fb.jpg</t>
+  </si>
+  <si>
+    <t>https://insertface.com/fb/2097/business-professional-winter-2096993-vruys-fb.jpg</t>
+  </si>
+  <si>
+    <t>https://insertface.com/fb/2299/office-professional-woman-2299033-adn8k-fb.jpg</t>
+  </si>
+  <si>
+    <t>nitya123@gmail.com</t>
+  </si>
+  <si>
+    <t>https://insertface.com/fb/2352/professional-office-wear-2352430-z2mz3-fb.jpg</t>
+  </si>
+  <si>
+    <t>https://insertface.com/fb/2099/modern-business-professional-2098735-dcp03-fb.jpg</t>
+  </si>
+  <si>
+    <t>neha@gmail.com</t>
+  </si>
+  <si>
+    <t>ankita@gmail.com</t>
+  </si>
+  <si>
+    <t>l2</t>
   </si>
 </sst>
 </file>
@@ -443,22 +419,19 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -754,10 +727,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:I64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -769,808 +742,876 @@
     <col min="8" max="8" width="86.5703125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="B1" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="C1" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="D1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="F1" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="G1" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="17.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="17.25">
       <c r="A2" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="6">
+        <v>21</v>
+      </c>
+      <c r="D2" s="4">
         <v>452001</v>
       </c>
       <c r="E2" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="F2">
         <v>8827389564</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>1</v>
+        <v>102</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="60.75">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="17.25">
       <c r="A3" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="6">
+        <v>22</v>
+      </c>
+      <c r="D3" s="4">
         <v>452001</v>
       </c>
       <c r="E3" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="F3">
         <v>7944988242</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="17.25">
+        <v>110</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="1:9" ht="17.25">
       <c r="A4" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="6">
+        <v>23</v>
+      </c>
+      <c r="D4" s="4">
         <v>456001</v>
       </c>
       <c r="E4" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="F4">
         <v>6234567890</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="17.25">
+        <v>113</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="17.25">
       <c r="A5" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="6">
+        <v>24</v>
+      </c>
+      <c r="D5" s="4">
         <v>455111</v>
       </c>
       <c r="E5" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="F5">
         <v>7234567891</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="17.25">
+        <v>59</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="17.25">
       <c r="A6" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="B6" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="6">
+        <v>25</v>
+      </c>
+      <c r="D6" s="4">
         <v>452001</v>
       </c>
       <c r="E6" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="F6">
         <v>8234567892</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="17.25">
+        <v>50</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="17.25">
       <c r="A7" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="6">
+        <v>26</v>
+      </c>
+      <c r="D7" s="4">
         <v>456001</v>
       </c>
       <c r="E7" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="F7">
         <v>6784560987</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="17.25">
+        <v>58</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="17.25">
       <c r="A8" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="6">
+        <v>27</v>
+      </c>
+      <c r="D8" s="4">
         <v>453443</v>
       </c>
       <c r="E8" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="F8">
         <v>9875679807</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="17.25">
+        <v>51</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="17.25">
       <c r="A9" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="B9" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="6">
+        <v>29</v>
+      </c>
+      <c r="D9" s="4">
         <v>455111</v>
       </c>
       <c r="E9" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="F9">
         <v>9997878787</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="17.25">
+        <v>57</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="17.25">
       <c r="A10" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="B10" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="6">
+        <v>28</v>
+      </c>
+      <c r="D10" s="4">
         <v>452002</v>
       </c>
       <c r="E10" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="F10">
         <v>5557898765</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="17.25">
+        <v>52</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="17.25">
       <c r="A11" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="B11" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="6">
+        <v>30</v>
+      </c>
+      <c r="D11" s="4">
         <v>455111</v>
       </c>
       <c r="E11" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="F11">
         <v>8976780987</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="17.25">
+        <v>53</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="17.25">
       <c r="A12" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="B12" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="6">
-        <v>462006</v>
+        <v>31</v>
+      </c>
+      <c r="D12" s="4">
+        <v>452002</v>
       </c>
       <c r="E12" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="F12">
         <v>3456543890</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="17.25">
+        <v>54</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="17.25">
       <c r="A13" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="B13" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="C13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="6">
+        <v>32</v>
+      </c>
+      <c r="D13" s="4">
         <v>462001</v>
       </c>
       <c r="E13" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="F13">
         <v>6787656789</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="17.25">
+        <v>55</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="17.25">
       <c r="A14" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="B14" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="C14" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="6">
+        <v>33</v>
+      </c>
+      <c r="D14" s="4">
         <v>455111</v>
       </c>
       <c r="E14" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="F14">
         <v>9897657897</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="17.25">
+        <v>56</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="17.25">
       <c r="A15" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="B15" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C15" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" s="6">
+        <v>34</v>
+      </c>
+      <c r="D15" s="4">
         <v>452001</v>
       </c>
       <c r="E15" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="F15">
         <v>8827389563</v>
       </c>
       <c r="G15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="17.25">
+      <c r="A16" t="s">
+        <v>87</v>
+      </c>
+      <c r="B16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="4">
+        <v>452001</v>
+      </c>
+      <c r="E16" t="s">
         <v>72</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="17.25">
-      <c r="A16" t="s">
-        <v>105</v>
-      </c>
-      <c r="B16" t="s">
-        <v>58</v>
-      </c>
-      <c r="C16" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" s="6">
-        <v>452001</v>
-      </c>
-      <c r="E16" t="s">
-        <v>84</v>
       </c>
       <c r="F16">
         <v>8197389564</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>15</v>
+        <v>61</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="17.25">
       <c r="A17" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="B17" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C17" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" s="6">
+        <v>36</v>
+      </c>
+      <c r="D17" s="4">
         <v>456001</v>
       </c>
       <c r="E17" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="F17">
         <v>8826549562</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>16</v>
+        <v>62</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="17.25">
       <c r="A18" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="B18" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C18" t="s">
-        <v>46</v>
-      </c>
-      <c r="D18" s="6">
+        <v>37</v>
+      </c>
+      <c r="D18" s="4">
         <v>452001</v>
       </c>
       <c r="E18" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="F18">
         <v>8812549562</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>17</v>
+        <v>63</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="17.25">
       <c r="A19" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="B19" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="C19" t="s">
-        <v>47</v>
-      </c>
-      <c r="D19" s="6">
+        <v>38</v>
+      </c>
+      <c r="D19" s="4">
         <v>462001</v>
       </c>
       <c r="E19" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="F19">
         <v>9812544562</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>18</v>
+        <v>64</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="17.25">
       <c r="A20" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="B20" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="C20" t="s">
-        <v>48</v>
-      </c>
-      <c r="D20" s="6">
+        <v>39</v>
+      </c>
+      <c r="D20" s="4">
         <v>455111</v>
       </c>
       <c r="E20" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="F20">
         <v>9812544565</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>19</v>
+        <v>65</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="17.25">
       <c r="A21" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B21" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C21" t="s">
-        <v>49</v>
-      </c>
-      <c r="D21" s="6">
-        <v>453330</v>
+        <v>40</v>
+      </c>
+      <c r="D21" s="4">
+        <v>452001</v>
       </c>
       <c r="E21" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="F21">
         <v>9812544510</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>20</v>
+        <v>66</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="17.25">
       <c r="A22" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B22" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C22" t="s">
-        <v>50</v>
-      </c>
-      <c r="D22" s="6">
+        <v>41</v>
+      </c>
+      <c r="D22" s="4">
         <v>452001</v>
       </c>
       <c r="E22" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="F22">
         <v>9885444514</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>21</v>
+        <v>67</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="17.25">
       <c r="A23" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="B23" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C23" t="s">
-        <v>51</v>
-      </c>
-      <c r="D23" s="6">
+        <v>42</v>
+      </c>
+      <c r="D23" s="4">
         <v>452001</v>
       </c>
       <c r="E23" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="F23">
         <v>9812744514</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>22</v>
+        <v>68</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="17.25">
       <c r="A24" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="B24" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C24" t="s">
-        <v>82</v>
-      </c>
-      <c r="D24" s="6">
-        <v>462006</v>
+        <v>70</v>
+      </c>
+      <c r="D24" s="4">
+        <v>456001</v>
       </c>
       <c r="E24" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="F24">
         <v>9812544514</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>23</v>
+        <v>69</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="17.25">
       <c r="A25" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="B25" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C25" t="s">
-        <v>46</v>
-      </c>
-      <c r="D25" s="6">
+        <v>37</v>
+      </c>
+      <c r="D25" s="4">
         <v>462006</v>
       </c>
       <c r="E25" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="F25">
         <v>9009009009</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>24</v>
+        <v>73</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="17.25">
       <c r="A26" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="B26" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="C26" t="s">
-        <v>42</v>
-      </c>
-      <c r="D26" s="6">
+        <v>33</v>
+      </c>
+      <c r="D26" s="4">
         <v>455111</v>
       </c>
       <c r="E26" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="F26">
         <v>6267876989</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="17.25">
-      <c r="A27" t="s">
-        <v>117</v>
-      </c>
-      <c r="B27" t="s">
-        <v>58</v>
-      </c>
-      <c r="C27" t="s">
-        <v>87</v>
-      </c>
-      <c r="D27" s="6">
-        <v>452001</v>
-      </c>
-      <c r="E27" t="s">
-        <v>83</v>
-      </c>
-      <c r="F27">
-        <v>6795679809</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="17.25">
+        <v>114</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" t="s">
         <v>115</v>
       </c>
-      <c r="B28" t="s">
-        <v>58</v>
-      </c>
-      <c r="C28" t="s">
-        <v>89</v>
-      </c>
-      <c r="D28" s="6">
-        <v>452001</v>
-      </c>
-      <c r="E28" t="s">
-        <v>84</v>
-      </c>
-      <c r="F28">
-        <v>9565656765</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="H28" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="35" spans="8:8">
-      <c r="H35"/>
-    </row>
-    <row r="38" spans="8:8">
-      <c r="H38" s="3"/>
+    </row>
+    <row r="61" spans="8:8">
+      <c r="H61"/>
+    </row>
+    <row r="62" spans="8:8">
+      <c r="H62"/>
+    </row>
+    <row r="63" spans="8:8">
+      <c r="H63"/>
+    </row>
+    <row r="64" spans="8:8">
+      <c r="H64"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1"/>
-    <hyperlink ref="G2" r:id="rId2"/>
-    <hyperlink ref="H4" r:id="rId3"/>
-    <hyperlink ref="H5" r:id="rId4"/>
-    <hyperlink ref="H9" r:id="rId5"/>
-    <hyperlink ref="H7" r:id="rId6"/>
-    <hyperlink ref="H6" r:id="rId7"/>
-    <hyperlink ref="H10" r:id="rId8"/>
-    <hyperlink ref="H11" r:id="rId9"/>
-    <hyperlink ref="H13" r:id="rId10"/>
-    <hyperlink ref="H12" r:id="rId11"/>
-    <hyperlink ref="H14" r:id="rId12"/>
-    <hyperlink ref="H8" r:id="rId13"/>
-    <hyperlink ref="H15" r:id="rId14"/>
-    <hyperlink ref="H21" r:id="rId15"/>
-    <hyperlink ref="H23" r:id="rId16"/>
-    <hyperlink ref="H18" r:id="rId17"/>
-    <hyperlink ref="H17" r:id="rId18"/>
-    <hyperlink ref="H16" r:id="rId19"/>
-    <hyperlink ref="H19" r:id="rId20"/>
-    <hyperlink ref="H22" r:id="rId21"/>
-    <hyperlink ref="H24" r:id="rId22"/>
-    <hyperlink ref="H25" r:id="rId23"/>
-    <hyperlink ref="H27" r:id="rId24"/>
-    <hyperlink ref="H28" r:id="rId25"/>
-    <hyperlink ref="H26" r:id="rId26"/>
-    <hyperlink ref="H3" display="https://scontent-bom1-2.xx.fbcdn.net/v/t39.30808-6/369904427_223879710611822_7220841334802818135_n.jpg?_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=5f2048&amp;_nc_ohc=vB7LHhVJKEwAb7Llwnv&amp;_nc_ht=scontent-bom1-2.xx&amp;oh=00_AfAQReGV9lrGi9VND65GOv8vawoGhgQcn07nygGgz87xvg&amp;oe=661ADB6"/>
-    <hyperlink ref="G3" r:id="rId27"/>
-    <hyperlink ref="G4" r:id="rId28"/>
-    <hyperlink ref="G6" r:id="rId29"/>
-    <hyperlink ref="G7" r:id="rId30"/>
-    <hyperlink ref="G5" r:id="rId31"/>
-    <hyperlink ref="G8" r:id="rId32"/>
-    <hyperlink ref="G9" r:id="rId33"/>
-    <hyperlink ref="G10" r:id="rId34"/>
-    <hyperlink ref="G11" r:id="rId35"/>
-    <hyperlink ref="G12" r:id="rId36"/>
-    <hyperlink ref="G13" r:id="rId37"/>
-    <hyperlink ref="G14" r:id="rId38"/>
-    <hyperlink ref="G15" r:id="rId39"/>
-    <hyperlink ref="G16" r:id="rId40"/>
-    <hyperlink ref="G17" r:id="rId41"/>
-    <hyperlink ref="G18" r:id="rId42"/>
-    <hyperlink ref="G19" r:id="rId43"/>
-    <hyperlink ref="G24" r:id="rId44"/>
-    <hyperlink ref="G21" r:id="rId45"/>
-    <hyperlink ref="G22" r:id="rId46"/>
-    <hyperlink ref="G23" r:id="rId47"/>
-    <hyperlink ref="G25" r:id="rId48"/>
-    <hyperlink ref="G26" r:id="rId49"/>
-    <hyperlink ref="G27" r:id="rId50"/>
-    <hyperlink ref="G28" r:id="rId51"/>
+    <hyperlink ref="G2" r:id="rId1"/>
+    <hyperlink ref="H4" r:id="rId2"/>
+    <hyperlink ref="H5" r:id="rId3"/>
+    <hyperlink ref="H9" r:id="rId4"/>
+    <hyperlink ref="H7" r:id="rId5"/>
+    <hyperlink ref="H6" r:id="rId6"/>
+    <hyperlink ref="H10" r:id="rId7"/>
+    <hyperlink ref="H11" r:id="rId8"/>
+    <hyperlink ref="H13" r:id="rId9"/>
+    <hyperlink ref="H12" r:id="rId10"/>
+    <hyperlink ref="H14" r:id="rId11"/>
+    <hyperlink ref="H8" r:id="rId12"/>
+    <hyperlink ref="H15" r:id="rId13"/>
+    <hyperlink ref="H21" r:id="rId14"/>
+    <hyperlink ref="H23" r:id="rId15"/>
+    <hyperlink ref="H16" r:id="rId16"/>
+    <hyperlink ref="H19" r:id="rId17"/>
+    <hyperlink ref="H22" r:id="rId18"/>
+    <hyperlink ref="H24" r:id="rId19"/>
+    <hyperlink ref="H25" r:id="rId20"/>
+    <hyperlink ref="H26" r:id="rId21"/>
+    <hyperlink ref="G3" r:id="rId22"/>
+    <hyperlink ref="G4" r:id="rId23"/>
+    <hyperlink ref="G6" r:id="rId24"/>
+    <hyperlink ref="G7" r:id="rId25"/>
+    <hyperlink ref="G5" r:id="rId26"/>
+    <hyperlink ref="G8" r:id="rId27"/>
+    <hyperlink ref="G9" r:id="rId28"/>
+    <hyperlink ref="G10" r:id="rId29"/>
+    <hyperlink ref="G11" r:id="rId30"/>
+    <hyperlink ref="G12" r:id="rId31"/>
+    <hyperlink ref="G13" r:id="rId32"/>
+    <hyperlink ref="G14" r:id="rId33"/>
+    <hyperlink ref="G15" r:id="rId34"/>
+    <hyperlink ref="G16" r:id="rId35"/>
+    <hyperlink ref="G17" r:id="rId36"/>
+    <hyperlink ref="G18" r:id="rId37"/>
+    <hyperlink ref="G19" r:id="rId38"/>
+    <hyperlink ref="G24" r:id="rId39"/>
+    <hyperlink ref="G21" r:id="rId40"/>
+    <hyperlink ref="G22" r:id="rId41"/>
+    <hyperlink ref="G23" r:id="rId42"/>
+    <hyperlink ref="G25" r:id="rId43"/>
+    <hyperlink ref="G26" r:id="rId44"/>
+    <hyperlink ref="H18" r:id="rId45"/>
+    <hyperlink ref="H3" r:id="rId46"/>
+    <hyperlink ref="H2" r:id="rId47"/>
+    <hyperlink ref="H17" r:id="rId48"/>
+    <hyperlink ref="H20" r:id="rId49"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId52"/>
+  <pageSetup orientation="portrait" r:id="rId50"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A35"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:A35"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="79.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="3"/>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="3"/>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="3"/>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="5"/>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="3"/>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="3"/>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="5"/>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="3"/>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="5"/>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="3"/>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="5"/>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="5"/>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="3"/>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="3"/>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="3"/>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="3"/>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="3"/>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="3"/>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="3"/>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="3"/>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="3"/>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="3"/>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="3"/>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="3"/>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="3"/>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="3"/>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="3"/>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="3"/>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="3"/>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="3"/>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="3"/>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="3"/>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="3"/>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="3"/>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="3"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
